--- a/public/atk.xlsx
+++ b/public/atk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekoheruwibowo/Documents/Developments/rfid/workspace/htdocs/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekoheruwibowo/Documents/Developments/lato/workspace/htdocs/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DDBC662-9140-044E-97C9-F2FF5ABC875F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396D5D57-A129-4F40-AA39-3D4DFBE6DDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{AEED1329-DEC2-6344-9A98-2B52E70DFCD6}"/>
+    <workbookView xWindow="6460" yWindow="2880" windowWidth="28040" windowHeight="17440" xr2:uid="{AEED1329-DEC2-6344-9A98-2B52E70DFCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>sap_code</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>uom_id</t>
-  </si>
-  <si>
-    <t>branch_id</t>
-  </si>
-  <si>
-    <t>warehouse_id</t>
   </si>
   <si>
     <t>min_stock</t>
@@ -417,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B1676C-6472-DC46-A547-467B9E4558D3}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,12 +443,6 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/public/atk.xlsx
+++ b/public/atk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekoheruwibowo/Documents/Developments/lato/workspace/htdocs/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekoheruwibowo/Documents/Developments/lato/workspace/htdocs/storage/app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396D5D57-A129-4F40-AA39-3D4DFBE6DDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0325E54F-F1AC-6146-A76F-FDA7DF9E3BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="2880" windowWidth="28040" windowHeight="17440" xr2:uid="{AEED1329-DEC2-6344-9A98-2B52E70DFCD6}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>sap_code</t>
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>material_group_id</t>
   </si>
   <si>
     <t>category_id</t>
@@ -411,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B1676C-6472-DC46-A547-467B9E4558D3}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,9 +437,6 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
